--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_7.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_7.xlsx
@@ -482,90 +482,90 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1089850718031011</v>
+        <v>0.1468087291125882</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3880394286732698</v>
+        <v>-0.2579805597569595</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5625954257302168</v>
+        <v>-2.96553883763914</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.309868408460783</v>
+        <v>-1.333159986838776</v>
       </c>
       <c r="F2" t="n">
-        <v>1.227319717407227</v>
+        <v>0.9442313313484192</v>
       </c>
       <c r="G2" t="n">
-        <v>2.519089460372925</v>
+        <v>1.768062114715576</v>
       </c>
       <c r="H2" t="n">
-        <v>2.379793643951416</v>
+        <v>4.138510704040527</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45353889465332</v>
+        <v>2.883567810058594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_23</t>
+          <t>model_4_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1054891473343325</v>
+        <v>0.1504525720508422</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3877304009082516</v>
+        <v>-0.2159530789692503</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5451977946798345</v>
+        <v>-2.998993032830487</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.303053172372127</v>
+        <v>-1.321149150420607</v>
       </c>
       <c r="F3" t="n">
-        <v>1.223450660705566</v>
+        <v>0.9401987195014954</v>
       </c>
       <c r="G3" t="n">
-        <v>2.518528938293457</v>
+        <v>1.708993434906006</v>
       </c>
       <c r="H3" t="n">
-        <v>2.353297710418701</v>
+        <v>4.173424243927002</v>
       </c>
       <c r="I3" t="n">
-        <v>2.440772771835327</v>
+        <v>2.868723630905151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_22</t>
+          <t>model_4_7_23</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1052956715547915</v>
+        <v>0.156851131379888</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3876812055218157</v>
+        <v>-0.1805375422529754</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.54426895515163</v>
+        <v>-3.006820293246807</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3026724659225415</v>
+        <v>-1.302939392434559</v>
       </c>
       <c r="F4" t="n">
-        <v>1.223236680030823</v>
+        <v>0.9331173300743103</v>
       </c>
       <c r="G4" t="n">
-        <v>2.518439292907715</v>
+        <v>1.659217715263367</v>
       </c>
       <c r="H4" t="n">
-        <v>2.351882934570312</v>
+        <v>4.18159294128418</v>
       </c>
       <c r="I4" t="n">
-        <v>2.440059900283813</v>
+        <v>2.84621787071228</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1037498353451225</v>
+        <v>0.1643413077167032</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3877408806169322</v>
+        <v>-0.1547171644497956</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5363015826884436</v>
+        <v>-2.98646469707262</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2996547468186006</v>
+        <v>-1.27930651400975</v>
       </c>
       <c r="F5" t="n">
-        <v>1.221525907516479</v>
+        <v>0.9248279333114624</v>
       </c>
       <c r="G5" t="n">
-        <v>2.518548011779785</v>
+        <v>1.622927784919739</v>
       </c>
       <c r="H5" t="n">
-        <v>2.339748859405518</v>
+        <v>4.160349369049072</v>
       </c>
       <c r="I5" t="n">
-        <v>2.434407234191895</v>
+        <v>2.817009925842285</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1031225671362224</v>
+        <v>0.1743969549673726</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3881494939419219</v>
+        <v>-0.134907839883194</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5325609168600924</v>
+        <v>-2.939406785451967</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2984328537016729</v>
+        <v>-1.248681145072607</v>
       </c>
       <c r="F6" t="n">
-        <v>1.220831632614136</v>
+        <v>0.9136992692947388</v>
       </c>
       <c r="G6" t="n">
-        <v>2.519289255142212</v>
+        <v>1.595086336135864</v>
       </c>
       <c r="H6" t="n">
-        <v>2.334052085876465</v>
+        <v>4.111238956451416</v>
       </c>
       <c r="I6" t="n">
-        <v>2.43211841583252</v>
+        <v>2.779159784317017</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1012884462175998</v>
+        <v>0.2059220490751215</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3882492689957613</v>
+        <v>-0.00129242807254859</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5230790061704385</v>
+        <v>-2.898293720765271</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2948562511957817</v>
+        <v>-1.15189921911758</v>
       </c>
       <c r="F7" t="n">
-        <v>1.218801736831665</v>
+        <v>0.8788103461265564</v>
       </c>
       <c r="G7" t="n">
-        <v>2.519470453262329</v>
+        <v>1.40729284286499</v>
       </c>
       <c r="H7" t="n">
-        <v>2.319611310958862</v>
+        <v>4.068332195281982</v>
       </c>
       <c r="I7" t="n">
-        <v>2.425419092178345</v>
+        <v>2.659546136856079</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1011991578587341</v>
+        <v>0.2811992826562635</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3883905949724311</v>
+        <v>0.2333844646972482</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5224287178452689</v>
+        <v>-2.690891101704143</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2946798885090816</v>
+        <v>-0.9281965041953024</v>
       </c>
       <c r="F8" t="n">
-        <v>1.218703031539917</v>
+        <v>0.795500636100769</v>
       </c>
       <c r="G8" t="n">
-        <v>2.519726991653442</v>
+        <v>1.077460050582886</v>
       </c>
       <c r="H8" t="n">
-        <v>2.318620681762695</v>
+        <v>3.851883172988892</v>
       </c>
       <c r="I8" t="n">
-        <v>2.425088882446289</v>
+        <v>2.383070468902588</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1005614693593588</v>
+        <v>0.2968081189240965</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.388613453089621</v>
+        <v>0.2500584402426042</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5188591969700858</v>
+        <v>-2.598305217236901</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2934285940116106</v>
+        <v>-0.8813653329034743</v>
       </c>
       <c r="F9" t="n">
-        <v>1.217997193336487</v>
+        <v>0.7782262563705444</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52013111114502</v>
+        <v>1.054025173187256</v>
       </c>
       <c r="H9" t="n">
-        <v>2.31318473815918</v>
+        <v>3.755258798599243</v>
       </c>
       <c r="I9" t="n">
-        <v>2.422744989395142</v>
+        <v>2.325191736221313</v>
       </c>
     </row>
     <row r="10">
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0988969673008131</v>
+        <v>0.3105010538131133</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3877993594068319</v>
+        <v>0.2980048730872318</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5114806503417701</v>
+        <v>-2.567584182333376</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2901878162900493</v>
+        <v>-0.8402932749682983</v>
       </c>
       <c r="F10" t="n">
-        <v>1.216155052185059</v>
+        <v>0.76307213306427</v>
       </c>
       <c r="G10" t="n">
-        <v>2.518653869628906</v>
+        <v>0.9866376519203186</v>
       </c>
       <c r="H10" t="n">
-        <v>2.301947116851807</v>
+        <v>3.723197937011719</v>
       </c>
       <c r="I10" t="n">
-        <v>2.416674375534058</v>
+        <v>2.274430513381958</v>
       </c>
     </row>
     <row r="11">
@@ -761,214 +761,214 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09720234140913697</v>
+        <v>0.3424171681344276</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.388144051254947</v>
+        <v>0.438094787108811</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5023732292048291</v>
+        <v>-2.541247298562319</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2868798077554473</v>
+        <v>-0.7454880544506748</v>
       </c>
       <c r="F11" t="n">
-        <v>1.214279770851135</v>
+        <v>0.7277503609657288</v>
       </c>
       <c r="G11" t="n">
-        <v>2.519279479980469</v>
+        <v>0.7897446155548096</v>
       </c>
       <c r="H11" t="n">
-        <v>2.288076877593994</v>
+        <v>3.695712327957153</v>
       </c>
       <c r="I11" t="n">
-        <v>2.410478353500366</v>
+        <v>2.157259941101074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_14</t>
+          <t>model_4_7_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09455781264382601</v>
+        <v>0.3686903837790492</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3881736297318084</v>
+        <v>0.3583658217399145</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.488850490684289</v>
+        <v>-2.018812740851146</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2817207899885903</v>
+        <v>-0.585886612868791</v>
       </c>
       <c r="F12" t="n">
-        <v>1.211353063583374</v>
+        <v>0.6986736655235291</v>
       </c>
       <c r="G12" t="n">
-        <v>2.519333124160767</v>
+        <v>0.9018018245697021</v>
       </c>
       <c r="H12" t="n">
-        <v>2.267482042312622</v>
+        <v>3.150489568710327</v>
       </c>
       <c r="I12" t="n">
-        <v>2.400815010070801</v>
+        <v>1.960007667541504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_13</t>
+          <t>model_4_7_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.09372392788435135</v>
+        <v>0.3851637497659807</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3887735303993494</v>
+        <v>0.6278470787549142</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4837588896109795</v>
+        <v>-2.509368682068669</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2800804355958197</v>
+        <v>-0.6185769565097274</v>
       </c>
       <c r="F13" t="n">
-        <v>1.210430145263672</v>
+        <v>0.6804425120353699</v>
       </c>
       <c r="G13" t="n">
-        <v>2.520421743392944</v>
+        <v>0.5230521559715271</v>
       </c>
       <c r="H13" t="n">
-        <v>2.259727716445923</v>
+        <v>3.662442922592163</v>
       </c>
       <c r="I13" t="n">
-        <v>2.39774227142334</v>
+        <v>2.000410079956055</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_11</t>
+          <t>model_4_7_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08813563826492632</v>
+        <v>0.4266905198288746</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3883842416999592</v>
+        <v>0.6810375659238197</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4557996780822917</v>
+        <v>-2.213967813150333</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2691829380679256</v>
+        <v>-0.469172182457738</v>
       </c>
       <c r="F14" t="n">
-        <v>1.204245448112488</v>
+        <v>0.6344846487045288</v>
       </c>
       <c r="G14" t="n">
-        <v>2.519715309143066</v>
+        <v>0.4482942223548889</v>
       </c>
       <c r="H14" t="n">
-        <v>2.217146635055542</v>
+        <v>3.354157209396362</v>
       </c>
       <c r="I14" t="n">
-        <v>2.37732982635498</v>
+        <v>1.815759539604187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_12</t>
+          <t>model_4_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.08717595587994342</v>
+        <v>0.4430670784411042</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3883574858813381</v>
+        <v>0.8689321972044195</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4509622967807367</v>
+        <v>-2.441490179791506</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2673183647142618</v>
+        <v>-0.4464613544958789</v>
       </c>
       <c r="F15" t="n">
-        <v>1.20318329334259</v>
+        <v>0.6163606643676758</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519666910171509</v>
+        <v>0.18421271443367</v>
       </c>
       <c r="H15" t="n">
-        <v>2.209779262542725</v>
+        <v>3.591603517532349</v>
       </c>
       <c r="I15" t="n">
-        <v>2.373837471008301</v>
+        <v>1.787690997123718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_10</t>
+          <t>model_4_7_4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.08658308973623274</v>
+        <v>0.4466501926137666</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3886585690943682</v>
+        <v>0.7992680351951651</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4474972078976496</v>
+        <v>-2.290802108189048</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2661470673137885</v>
+        <v>-0.4285245560368078</v>
       </c>
       <c r="F16" t="n">
-        <v>1.202527284622192</v>
+        <v>0.612395167350769</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52021312713623</v>
+        <v>0.2821240425109863</v>
       </c>
       <c r="H16" t="n">
-        <v>2.204502105712891</v>
+        <v>3.434342861175537</v>
       </c>
       <c r="I16" t="n">
-        <v>2.371643543243408</v>
+        <v>1.765522956848145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_9</t>
+          <t>model_4_7_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.07851342854953169</v>
+        <v>0.448176941773755</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3874598941883276</v>
+        <v>0.8693608203795998</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4079155090745317</v>
+        <v>-2.403895195436971</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2503874166258782</v>
+        <v>-0.4312629872381906</v>
       </c>
       <c r="F17" t="n">
-        <v>1.193596720695496</v>
+        <v>0.6107054948806763</v>
       </c>
       <c r="G17" t="n">
-        <v>2.518037557601929</v>
+        <v>0.1836103051900864</v>
       </c>
       <c r="H17" t="n">
-        <v>2.144220113754272</v>
+        <v>3.552368879318237</v>
       </c>
       <c r="I17" t="n">
-        <v>2.342123746871948</v>
+        <v>1.768907308578491</v>
       </c>
     </row>
     <row r="18">
@@ -978,214 +978,214 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06883940070392147</v>
+        <v>0.4488697983893211</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3878161224191534</v>
+        <v>0.8484742682093742</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3579268330832488</v>
+        <v>-2.363073755754094</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2314433699726646</v>
+        <v>-0.4276165697299232</v>
       </c>
       <c r="F18" t="n">
-        <v>1.182890176773071</v>
+        <v>0.6099387407302856</v>
       </c>
       <c r="G18" t="n">
-        <v>2.518684387207031</v>
+        <v>0.2129658609628677</v>
       </c>
       <c r="H18" t="n">
-        <v>2.068088531494141</v>
+        <v>3.509767055511475</v>
       </c>
       <c r="I18" t="n">
-        <v>2.306639194488525</v>
+        <v>1.764400720596313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_6</t>
+          <t>model_4_7_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06456499802243587</v>
+        <v>0.4489745532063536</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3885697005113242</v>
+        <v>0.8405570423657185</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3345922513159814</v>
+        <v>-2.34799205402754</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2229016765899074</v>
+        <v>-0.4263890652844082</v>
       </c>
       <c r="F19" t="n">
-        <v>1.178159832954407</v>
+        <v>0.6098228096961975</v>
       </c>
       <c r="G19" t="n">
-        <v>2.520051956176758</v>
+        <v>0.2240933328866959</v>
       </c>
       <c r="H19" t="n">
-        <v>2.032550573348999</v>
+        <v>3.494027376174927</v>
       </c>
       <c r="I19" t="n">
-        <v>2.290639877319336</v>
+        <v>1.76288366317749</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_7</t>
+          <t>model_4_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.06391692567524232</v>
+        <v>0.4492421607617639</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3883721499855362</v>
+        <v>0.8455690748880246</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3317192046856139</v>
+        <v>-2.355153041825931</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2217009930832996</v>
+        <v>-0.4262201278019213</v>
       </c>
       <c r="F20" t="n">
-        <v>1.17744255065918</v>
+        <v>0.6095266342163086</v>
       </c>
       <c r="G20" t="n">
-        <v>2.51969313621521</v>
+        <v>0.2170490324497223</v>
       </c>
       <c r="H20" t="n">
-        <v>2.028174877166748</v>
+        <v>3.501500844955444</v>
       </c>
       <c r="I20" t="n">
-        <v>2.288390636444092</v>
+        <v>1.762674808502197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_5</t>
+          <t>model_4_7_11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0590463605215521</v>
+        <v>0.4493516470640899</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3893167093876966</v>
+        <v>0.8666343326713039</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3031848944656959</v>
+        <v>-2.390850030587242</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.211267663223204</v>
+        <v>-0.4277214742789379</v>
       </c>
       <c r="F21" t="n">
-        <v>1.172052145004272</v>
+        <v>0.6094054579734802</v>
       </c>
       <c r="G21" t="n">
-        <v>2.521407604217529</v>
+        <v>0.1874423027038574</v>
       </c>
       <c r="H21" t="n">
-        <v>1.984718084335327</v>
+        <v>3.538754463195801</v>
       </c>
       <c r="I21" t="n">
-        <v>2.268847703933716</v>
+        <v>1.764530301094055</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_4</t>
+          <t>model_4_7_7</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03025214409551902</v>
+        <v>0.4494317100521524</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3878483150660981</v>
+        <v>0.8494886545428588</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1545060251195538</v>
+        <v>-2.359922268465385</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1536268015998992</v>
+        <v>-0.4257537250987604</v>
       </c>
       <c r="F22" t="n">
-        <v>1.140185594558716</v>
+        <v>0.6093168258666992</v>
       </c>
       <c r="G22" t="n">
-        <v>2.518742561340332</v>
+        <v>0.211540162563324</v>
       </c>
       <c r="H22" t="n">
-        <v>1.758283853530884</v>
+        <v>3.506478071212769</v>
       </c>
       <c r="I22" t="n">
-        <v>2.160879611968994</v>
+        <v>1.762098431587219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_3</t>
+          <t>model_4_7_10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01115031805948097</v>
+        <v>0.4500231481360416</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3915161951862585</v>
+        <v>0.8633159750384704</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04125523337132297</v>
+        <v>-2.380318281982722</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1121761012264264</v>
+        <v>-0.4255349722069728</v>
       </c>
       <c r="F23" t="n">
-        <v>1.119045495986938</v>
+        <v>0.6086622476577759</v>
       </c>
       <c r="G23" t="n">
-        <v>2.525399208068848</v>
+        <v>0.1921061873435974</v>
       </c>
       <c r="H23" t="n">
-        <v>1.585805654525757</v>
+        <v>3.527763605117798</v>
       </c>
       <c r="I23" t="n">
-        <v>2.083237648010254</v>
+        <v>1.761828064918518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_7_2</t>
+          <t>model_4_7_9</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01022636191985948</v>
+        <v>0.4503566302794608</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4013405245805572</v>
+        <v>0.855085358459555</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01694094210152186</v>
+        <v>-2.363866806637135</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1079123018798489</v>
+        <v>-0.4239534298713545</v>
       </c>
       <c r="F24" t="n">
-        <v>1.118022918701172</v>
+        <v>0.6082932353019714</v>
       </c>
       <c r="G24" t="n">
-        <v>2.543229103088379</v>
+        <v>0.2036741375923157</v>
       </c>
       <c r="H24" t="n">
-        <v>1.548775672912598</v>
+        <v>3.510594606399536</v>
       </c>
       <c r="I24" t="n">
-        <v>2.075250864028931</v>
+        <v>1.759873390197754</v>
       </c>
     </row>
     <row r="25">
@@ -1195,28 +1195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002712088803045187</v>
+        <v>0.4568268506300701</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3888940382932728</v>
+        <v>0.651626020575937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007871237778862339</v>
+        <v>-1.711910491130705</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.09203432264693956</v>
+        <v>-0.287375474758401</v>
       </c>
       <c r="F25" t="n">
-        <v>1.10970675945282</v>
+        <v>0.6011326909065247</v>
       </c>
       <c r="G25" t="n">
-        <v>2.52064061164856</v>
+        <v>0.4896314442157745</v>
       </c>
       <c r="H25" t="n">
-        <v>1.510987281799316</v>
+        <v>2.830200672149658</v>
       </c>
       <c r="I25" t="n">
-        <v>2.045509576797485</v>
+        <v>1.591075778007507</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01520643730357907</v>
+        <v>0.84854599859772</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3272351280726606</v>
+        <v>0.8893489180287196</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02022690812339023</v>
+        <v>0.9230559864558447</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.05567920560722817</v>
+        <v>0.9028073392759569</v>
       </c>
       <c r="F26" t="n">
-        <v>1.089876294136047</v>
+        <v>0.1676149517297745</v>
       </c>
       <c r="G26" t="n">
-        <v>2.408738613128662</v>
+        <v>0.1555174887180328</v>
       </c>
       <c r="H26" t="n">
-        <v>1.492169857025146</v>
+        <v>0.08030021190643311</v>
       </c>
       <c r="I26" t="n">
-        <v>1.977412104606628</v>
+        <v>0.1201210469007492</v>
       </c>
     </row>
   </sheetData>
